--- a/Экзамен/Экзамен.xlsx
+++ b/Экзамен/Экзамен.xlsx
@@ -489,7 +489,7 @@
   <dimension ref="C2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +527,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H8" si="0">SUM(D3:G3)/4</f>
+        <f t="shared" ref="H3:H7" si="0">SUM(D3:G3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -579,10 +579,21 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I6" s="1">
         <f>Домашки!D11</f>
@@ -590,7 +601,7 @@
       </c>
       <c r="J6" s="1">
         <f t="shared" si="1"/>
-        <v>5.484375</v>
+        <v>10.984375</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
@@ -614,9 +625,21 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(D8:G8)</f>
+        <v>5</v>
       </c>
       <c r="I8" s="1">
         <f>Домашки!D13</f>
@@ -624,25 +647,36 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" si="1"/>
-        <v>0.484375</v>
+        <v>2.984375</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
       <c r="H9" s="1">
-        <f>SUM(D9:G9)/4</f>
-        <v>0</v>
+        <f>SUM(D9:G9)</f>
+        <v>11</v>
       </c>
       <c r="I9" s="1">
         <f>Домашки!D14</f>
-        <v>8.21875</v>
+        <v>9.09375</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="1"/>
-        <v>4.109375</v>
+        <v>10.046875</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
@@ -764,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:AK26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,11 +1480,11 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>8.21875</v>
+        <v>9.09375</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>0.71875</v>
+        <v>0.90625</v>
       </c>
       <c r="F14">
         <v>12</v>
@@ -1525,22 +1559,22 @@
         <v>12</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AJ14">
         <v>0</v>

--- a/Экзамен/Экзамен.xlsx
+++ b/Экзамен/Экзамен.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18195" windowHeight="13110"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18195" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Экзамен" sheetId="1" r:id="rId1"/>
@@ -489,7 +489,7 @@
   <dimension ref="C2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,10 +561,21 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1">
         <f>Домашки!D10</f>
@@ -572,7 +583,7 @@
       </c>
       <c r="J5" s="1">
         <f t="shared" si="1"/>
-        <v>4.859375</v>
+        <v>9.859375</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
@@ -608,9 +619,21 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1">
         <f>Домашки!D12</f>
@@ -618,7 +641,7 @@
       </c>
       <c r="J7" s="1">
         <f t="shared" si="1"/>
-        <v>0.859375</v>
+        <v>3.359375</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">

--- a/Экзамен/Экзамен.xlsx
+++ b/Экзамен/Экзамен.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18195" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18195" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Экзамен" sheetId="1" r:id="rId1"/>
     <sheet name="Домашки" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Домашки</t>
   </si>
@@ -55,6 +55,48 @@
   </si>
   <si>
     <t>Шульгин Алексей Леонидович</t>
+  </si>
+  <si>
+    <t>Гейко Константин Иванович </t>
+  </si>
+  <si>
+    <t>Граев Геннадий Александрович </t>
+  </si>
+  <si>
+    <t>Запара Святослав Сергеевич </t>
+  </si>
+  <si>
+    <t>Карпов Александр Владимирович </t>
+  </si>
+  <si>
+    <t>Кекух Сергей Станиславович </t>
+  </si>
+  <si>
+    <t>Коробов Илья Павлович </t>
+  </si>
+  <si>
+    <t>Мирошниченко Евгений Владимирович </t>
+  </si>
+  <si>
+    <t>Онищенко Александр Владимирович </t>
+  </si>
+  <si>
+    <t>Радченко Роман Федорович </t>
+  </si>
+  <si>
+    <t>Спивак Николай Александрович </t>
+  </si>
+  <si>
+    <t>Шунько Сергей Сергеевич </t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
   </si>
 </sst>
 </file>
@@ -78,12 +120,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -98,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -107,6 +155,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -488,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -500,11 +552,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" t="s">
         <v>3</v>
       </c>
@@ -703,11 +755,11 @@
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1663,12 +1715,148 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C3:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5">
+        <v>7</v>
+      </c>
+      <c r="F9" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4</v>
+      </c>
+      <c r="F14" s="5">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>